--- a/data/dcoe_standup_sprint_to_psa_v3_20250627.xlsx
+++ b/data/dcoe_standup_sprint_to_psa_v3_20250627.xlsx
@@ -32,58 +32,58 @@
     <t>what</t>
   </si>
   <si>
+    <t>Karen Allen</t>
+  </si>
+  <si>
     <t>David Garcia</t>
+  </si>
+  <si>
+    <t>Maria Scott</t>
+  </si>
+  <si>
+    <t>Bob Smith</t>
+  </si>
+  <si>
+    <t>Larry King</t>
+  </si>
+  <si>
+    <t>Samuel Turner</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
   </si>
   <si>
     <t>Isabella Hall</t>
   </si>
   <si>
-    <t>Maria Scott</t>
-  </si>
-  <si>
     <t>Paul Lewis</t>
   </si>
   <si>
-    <t>Bob Smith</t>
-  </si>
-  <si>
-    <t>Alice Johnson</t>
-  </si>
-  <si>
-    <t>Samuel Turner</t>
-  </si>
-  <si>
-    <t>Larry King</t>
-  </si>
-  <si>
-    <t>Karen Allen</t>
+    <t>74793: Data CoE ceremony</t>
   </si>
   <si>
     <t>15282: Data CoE ceremony</t>
   </si>
   <si>
-    <t>76160: Data CoE ceremony</t>
-  </si>
-  <si>
     <t>73585: Data CoE ceremony</t>
-  </si>
-  <si>
-    <t>56918: Data CoE ceremony</t>
   </si>
   <si>
     <t>35230: Data CoE ceremony</t>
   </si>
   <si>
-    <t>20862: Data CoE ceremony</t>
+    <t>43556: Data CoE ceremony</t>
   </si>
   <si>
     <t>77146: Data CoE ceremony</t>
   </si>
   <si>
-    <t>43556: Data CoE ceremony</t>
+    <t>20862: Data CoE ceremony</t>
   </si>
   <si>
-    <t>74793: Data CoE ceremony</t>
+    <t>76160: Data CoE ceremony</t>
+  </si>
+  <si>
+    <t>56918: Data CoE ceremony</t>
   </si>
 </sst>
 </file>
@@ -479,114 +479,114 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -599,10 +599,10 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -615,74 +615,74 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -695,10 +695,10 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -711,122 +711,122 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -839,10 +839,10 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -855,186 +855,186 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1055,10 +1055,10 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1071,146 +1071,146 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1223,50 +1223,50 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1279,18 +1279,18 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1303,210 +1303,210 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1519,42 +1519,42 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1575,114 +1575,114 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1695,306 +1695,306 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B185" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2007,58 +2007,58 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2090,34 +2090,34 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2130,82 +2130,82 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2218,18 +2218,18 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2242,42 +2242,42 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2290,42 +2290,42 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2338,18 +2338,18 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2370,154 +2370,154 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2530,74 +2530,74 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2610,250 +2610,250 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2866,194 +2866,194 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3066,18 +3066,18 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3090,122 +3090,122 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3226,74 +3226,74 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3306,18 +3306,18 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3330,362 +3330,362 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B177" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B197" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B201" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3717,10 +3717,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3733,26 +3733,26 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3765,10 +3765,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3781,114 +3781,114 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3901,58 +3901,58 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3965,50 +3965,50 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4021,26 +4021,26 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4053,10 +4053,10 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4069,10 +4069,10 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4085,34 +4085,34 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4125,34 +4125,34 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4165,58 +4165,58 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4229,138 +4229,138 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4373,122 +4373,122 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4501,130 +4501,130 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4637,10 +4637,10 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4653,50 +4653,50 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4709,10 +4709,10 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4725,74 +4725,74 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4805,42 +4805,42 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4853,50 +4853,50 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4909,18 +4909,18 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4933,106 +4933,106 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B165" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5045,26 +5045,26 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5077,130 +5077,130 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -5213,98 +5213,98 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B190" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B197" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -5344,50 +5344,50 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5408,50 +5408,50 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5464,10 +5464,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5480,58 +5480,58 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5544,58 +5544,58 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5608,10 +5608,10 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5624,10 +5624,10 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5640,58 +5640,58 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5704,10 +5704,10 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5720,106 +5720,106 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5848,18 +5848,18 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5880,74 +5880,74 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5976,50 +5976,50 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -6032,42 +6032,42 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -6088,10 +6088,10 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -6104,10 +6104,10 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -6120,90 +6120,90 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -6216,26 +6216,26 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -6248,202 +6248,202 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -6456,146 +6456,146 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -6608,10 +6608,10 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -6624,90 +6624,90 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B169" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B171" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -6720,66 +6720,66 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B180" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -6792,154 +6792,154 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B184" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B196" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -6971,82 +6971,82 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7059,10 +7059,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7075,274 +7075,274 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7355,218 +7355,218 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -7579,42 +7579,42 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -7627,42 +7627,42 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -7675,58 +7675,58 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -7739,42 +7739,42 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -7787,90 +7787,90 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -7883,82 +7883,82 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -7971,90 +7971,90 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -8067,66 +8067,66 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -8139,66 +8139,66 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -8219,34 +8219,34 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -8259,58 +8259,58 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B165" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -8323,10 +8323,10 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -8339,50 +8339,50 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B176" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -8395,10 +8395,10 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -8419,130 +8419,130 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -8563,10 +8563,10 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/dcoe_standup_sprint_to_psa_v3_20250627.xlsx
+++ b/data/dcoe_standup_sprint_to_psa_v3_20250627.xlsx
@@ -32,16 +32,19 @@
     <t>what</t>
   </si>
   <si>
-    <t>Karen Allen</t>
+    <t>Bob Smith</t>
   </si>
   <si>
     <t>David Garcia</t>
   </si>
   <si>
-    <t>Maria Scott</t>
+    <t>Alice Johnson</t>
   </si>
   <si>
-    <t>Bob Smith</t>
+    <t>Paul Lewis</t>
+  </si>
+  <si>
+    <t>Maria Scott</t>
   </si>
   <si>
     <t>Larry King</t>
@@ -50,25 +53,25 @@
     <t>Samuel Turner</t>
   </si>
   <si>
-    <t>Alice Johnson</t>
+    <t>Karen Allen</t>
   </si>
   <si>
     <t>Isabella Hall</t>
   </si>
   <si>
-    <t>Paul Lewis</t>
-  </si>
-  <si>
-    <t>74793: Data CoE ceremony</t>
+    <t>35230: Data CoE ceremony</t>
   </si>
   <si>
     <t>15282: Data CoE ceremony</t>
   </si>
   <si>
-    <t>73585: Data CoE ceremony</t>
+    <t>20862: Data CoE ceremony</t>
   </si>
   <si>
-    <t>35230: Data CoE ceremony</t>
+    <t>56918: Data CoE ceremony</t>
+  </si>
+  <si>
+    <t>73585: Data CoE ceremony</t>
   </si>
   <si>
     <t>43556: Data CoE ceremony</t>
@@ -77,13 +80,10 @@
     <t>77146: Data CoE ceremony</t>
   </si>
   <si>
-    <t>20862: Data CoE ceremony</t>
+    <t>74793: Data CoE ceremony</t>
   </si>
   <si>
     <t>76160: Data CoE ceremony</t>
-  </si>
-  <si>
-    <t>56918: Data CoE ceremony</t>
   </si>
 </sst>
 </file>
@@ -479,26 +479,26 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -511,18 +511,18 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -535,34 +535,34 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -575,154 +575,154 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -735,66 +735,66 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -815,154 +815,154 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -975,10 +975,10 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -991,34 +991,34 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1031,18 +1031,18 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1055,90 +1055,90 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1151,82 +1151,82 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1239,26 +1239,26 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1279,386 +1279,386 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1671,10 +1671,10 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1687,58 +1687,58 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B159" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1751,34 +1751,34 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1791,146 +1791,146 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1943,18 +1943,18 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1967,98 +1967,98 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B195" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B197" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2098,26 +2098,26 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2130,138 +2130,138 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2274,202 +2274,202 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2482,66 +2482,66 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2554,18 +2554,18 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2586,42 +2586,42 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2634,162 +2634,162 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2802,10 +2802,10 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2818,90 +2818,90 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2914,10 +2914,10 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2930,58 +2930,58 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2994,98 +2994,98 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3098,146 +3098,146 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3250,42 +3250,42 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3306,194 +3306,194 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B154" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B162" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3506,90 +3506,90 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3602,58 +3602,58 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B196" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3666,26 +3666,26 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3717,10 +3717,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3733,26 +3733,26 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3765,42 +3765,42 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3813,130 +3813,130 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3949,26 +3949,26 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3981,82 +3981,82 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4069,34 +4069,34 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4109,122 +4109,122 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4237,10 +4237,10 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4253,26 +4253,26 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4293,98 +4293,98 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4397,66 +4397,66 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4469,26 +4469,26 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4501,34 +4501,34 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4541,26 +4541,26 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4573,146 +4573,146 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4725,50 +4725,50 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4781,82 +4781,82 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4869,10 +4869,10 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -4885,90 +4885,90 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B154" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4981,26 +4981,26 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5013,82 +5013,82 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5101,34 +5101,34 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -5141,50 +5141,50 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B184" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -5197,42 +5197,42 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -5245,74 +5245,74 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B194" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B197" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5344,18 +5344,18 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5368,130 +5368,130 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5504,26 +5504,26 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5536,18 +5536,18 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5568,98 +5568,98 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5672,114 +5672,114 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5800,18 +5800,18 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5824,154 +5824,154 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5984,90 +5984,90 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -6080,90 +6080,90 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6192,146 +6192,146 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -6344,106 +6344,106 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -6456,10 +6456,10 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -6472,58 +6472,58 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -6536,50 +6536,50 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -6592,50 +6592,50 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -6648,10 +6648,10 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B165" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -6664,138 +6664,138 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B172" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -6808,74 +6808,74 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B185" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B191" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -6888,58 +6888,58 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B195" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6971,114 +6971,114 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7091,58 +7091,58 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7155,34 +7155,34 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7195,66 +7195,66 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7267,50 +7267,50 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7323,34 +7323,34 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7363,42 +7363,42 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -7411,58 +7411,58 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -7475,74 +7475,74 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -7555,146 +7555,146 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -7707,66 +7707,66 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -7779,98 +7779,98 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -7883,218 +7883,218 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B142" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -8107,42 +8107,42 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -8155,66 +8155,66 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -8227,194 +8227,194 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B164" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B182" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -8427,10 +8427,10 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -8451,58 +8451,58 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B187" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -8515,26 +8515,26 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B195" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -8547,26 +8547,26 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
